--- a/Tài Nguyên/Bien ban cuoc hop.xlsx
+++ b/Tài Nguyên/Bien ban cuoc hop.xlsx
@@ -3,21 +3,22 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="24332"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FDB2DB7C-FB1F-4902-8A40-A243E09DB406}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{14188DD8-CB17-4A63-ABF5-28027176B6FA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15990" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="1845" yWindow="4530" windowWidth="21600" windowHeight="11685" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Rules" sheetId="1" r:id="rId1"/>
     <sheet name="Week 01" sheetId="2" r:id="rId2"/>
     <sheet name="Week 02" sheetId="4" r:id="rId3"/>
+    <sheet name="Week 03" sheetId="5" r:id="rId4"/>
   </sheets>
   <calcPr calcId="124519"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="74" uniqueCount="44">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="102" uniqueCount="45">
   <si>
     <t>chất lượng</t>
   </si>
@@ -149,6 +150,9 @@
   </si>
   <si>
     <t>12h00-12h30 ngày 15/05/2023</t>
+  </si>
+  <si>
+    <t>12h00-12h30 ngày 19/05/2023</t>
   </si>
 </sst>
 </file>
@@ -415,7 +419,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="26">
+  <cellXfs count="27">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -458,6 +462,12 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -484,9 +494,6 @@
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -965,7 +972,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="B1:R9"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="N14" sqref="N14"/>
     </sheetView>
   </sheetViews>
@@ -996,34 +1003,34 @@
       <c r="B2" s="7" t="s">
         <v>37</v>
       </c>
-      <c r="C2" s="17" t="s">
+      <c r="C2" s="19" t="s">
         <v>34</v>
       </c>
-      <c r="D2" s="17"/>
-      <c r="E2" s="17"/>
-      <c r="F2" s="17"/>
-      <c r="G2" s="17"/>
-      <c r="H2" s="17"/>
-      <c r="I2" s="17"/>
-      <c r="J2" s="17"/>
-      <c r="K2" s="17"/>
-      <c r="L2" s="17"/>
-      <c r="M2" s="17"/>
-      <c r="N2" s="17"/>
-      <c r="O2" s="18"/>
-      <c r="P2" s="18"/>
-      <c r="Q2" s="18"/>
-      <c r="R2" s="19"/>
+      <c r="D2" s="19"/>
+      <c r="E2" s="19"/>
+      <c r="F2" s="19"/>
+      <c r="G2" s="19"/>
+      <c r="H2" s="19"/>
+      <c r="I2" s="19"/>
+      <c r="J2" s="19"/>
+      <c r="K2" s="19"/>
+      <c r="L2" s="19"/>
+      <c r="M2" s="19"/>
+      <c r="N2" s="19"/>
+      <c r="O2" s="20"/>
+      <c r="P2" s="20"/>
+      <c r="Q2" s="20"/>
+      <c r="R2" s="21"/>
     </row>
     <row r="3" spans="2:18" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B3" s="20" t="s">
+      <c r="B3" s="22" t="s">
         <v>20</v>
       </c>
-      <c r="C3" s="21" t="s">
+      <c r="C3" s="23" t="s">
         <v>33</v>
       </c>
-      <c r="D3" s="21"/>
-      <c r="E3" s="21"/>
+      <c r="D3" s="23"/>
+      <c r="E3" s="23"/>
       <c r="F3" s="15" t="s">
         <v>35</v>
       </c>
@@ -1033,29 +1040,29 @@
       <c r="H3" s="15" t="s">
         <v>36</v>
       </c>
-      <c r="I3" s="21" t="s">
+      <c r="I3" s="23" t="s">
         <v>24</v>
       </c>
-      <c r="J3" s="21"/>
-      <c r="K3" s="21"/>
-      <c r="L3" s="21" t="s">
+      <c r="J3" s="23"/>
+      <c r="K3" s="23"/>
+      <c r="L3" s="23" t="s">
         <v>15</v>
       </c>
-      <c r="M3" s="22"/>
-      <c r="N3" s="22"/>
-      <c r="O3" s="21" t="s">
+      <c r="M3" s="24"/>
+      <c r="N3" s="24"/>
+      <c r="O3" s="23" t="s">
         <v>13</v>
       </c>
-      <c r="P3" s="21"/>
-      <c r="Q3" s="23" t="s">
+      <c r="P3" s="23"/>
+      <c r="Q3" s="25" t="s">
         <v>22</v>
       </c>
-      <c r="R3" s="16" t="s">
+      <c r="R3" s="18" t="s">
         <v>21</v>
       </c>
     </row>
     <row r="4" spans="2:18" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B4" s="20"/>
+      <c r="B4" s="22"/>
       <c r="C4" s="9" t="s">
         <v>7</v>
       </c>
@@ -1092,8 +1099,8 @@
       <c r="P4" s="9" t="s">
         <v>26</v>
       </c>
-      <c r="Q4" s="24"/>
-      <c r="R4" s="16"/>
+      <c r="Q4" s="26"/>
+      <c r="R4" s="18"/>
     </row>
     <row r="5" spans="2:18" x14ac:dyDescent="0.25">
       <c r="B5" s="4" t="s">
@@ -1236,7 +1243,7 @@
       <c r="O9" s="11"/>
       <c r="P9" s="11"/>
       <c r="Q9" s="14"/>
-      <c r="R9" s="25">
+      <c r="R9" s="17">
         <v>4</v>
       </c>
     </row>
@@ -1291,34 +1298,34 @@
       <c r="B2" s="7" t="s">
         <v>43</v>
       </c>
-      <c r="C2" s="17" t="s">
+      <c r="C2" s="19" t="s">
         <v>34</v>
       </c>
-      <c r="D2" s="17"/>
-      <c r="E2" s="17"/>
-      <c r="F2" s="17"/>
-      <c r="G2" s="17"/>
-      <c r="H2" s="17"/>
-      <c r="I2" s="17"/>
-      <c r="J2" s="17"/>
-      <c r="K2" s="17"/>
-      <c r="L2" s="17"/>
-      <c r="M2" s="17"/>
-      <c r="N2" s="17"/>
-      <c r="O2" s="18"/>
-      <c r="P2" s="18"/>
-      <c r="Q2" s="18"/>
-      <c r="R2" s="19"/>
+      <c r="D2" s="19"/>
+      <c r="E2" s="19"/>
+      <c r="F2" s="19"/>
+      <c r="G2" s="19"/>
+      <c r="H2" s="19"/>
+      <c r="I2" s="19"/>
+      <c r="J2" s="19"/>
+      <c r="K2" s="19"/>
+      <c r="L2" s="19"/>
+      <c r="M2" s="19"/>
+      <c r="N2" s="19"/>
+      <c r="O2" s="20"/>
+      <c r="P2" s="20"/>
+      <c r="Q2" s="20"/>
+      <c r="R2" s="21"/>
     </row>
     <row r="3" spans="2:18" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B3" s="20" t="s">
+      <c r="B3" s="22" t="s">
         <v>20</v>
       </c>
-      <c r="C3" s="21" t="s">
+      <c r="C3" s="23" t="s">
         <v>33</v>
       </c>
-      <c r="D3" s="21"/>
-      <c r="E3" s="21"/>
+      <c r="D3" s="23"/>
+      <c r="E3" s="23"/>
       <c r="F3" s="15" t="s">
         <v>35</v>
       </c>
@@ -1328,29 +1335,29 @@
       <c r="H3" s="15" t="s">
         <v>36</v>
       </c>
-      <c r="I3" s="21" t="s">
+      <c r="I3" s="23" t="s">
         <v>24</v>
       </c>
-      <c r="J3" s="21"/>
-      <c r="K3" s="21"/>
-      <c r="L3" s="21" t="s">
+      <c r="J3" s="23"/>
+      <c r="K3" s="23"/>
+      <c r="L3" s="23" t="s">
         <v>15</v>
       </c>
-      <c r="M3" s="22"/>
-      <c r="N3" s="22"/>
-      <c r="O3" s="21" t="s">
+      <c r="M3" s="24"/>
+      <c r="N3" s="24"/>
+      <c r="O3" s="23" t="s">
         <v>13</v>
       </c>
-      <c r="P3" s="21"/>
-      <c r="Q3" s="23" t="s">
+      <c r="P3" s="23"/>
+      <c r="Q3" s="25" t="s">
         <v>22</v>
       </c>
-      <c r="R3" s="16" t="s">
+      <c r="R3" s="18" t="s">
         <v>21</v>
       </c>
     </row>
     <row r="4" spans="2:18" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B4" s="20"/>
+      <c r="B4" s="22"/>
       <c r="C4" s="9" t="s">
         <v>7</v>
       </c>
@@ -1387,8 +1394,8 @@
       <c r="P4" s="9" t="s">
         <v>26</v>
       </c>
-      <c r="Q4" s="24"/>
-      <c r="R4" s="16"/>
+      <c r="Q4" s="26"/>
+      <c r="R4" s="18"/>
     </row>
     <row r="5" spans="2:18" x14ac:dyDescent="0.25">
       <c r="B5" s="4" t="s">
@@ -1531,7 +1538,302 @@
       <c r="O9" s="11"/>
       <c r="P9" s="11"/>
       <c r="Q9" s="14"/>
-      <c r="R9" s="25">
+      <c r="R9" s="17">
+        <v>4</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="8">
+    <mergeCell ref="C2:R2"/>
+    <mergeCell ref="B3:B4"/>
+    <mergeCell ref="C3:E3"/>
+    <mergeCell ref="I3:K3"/>
+    <mergeCell ref="L3:N3"/>
+    <mergeCell ref="O3:P3"/>
+    <mergeCell ref="Q3:Q4"/>
+    <mergeCell ref="R3:R4"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="0" orientation="portrait" horizontalDpi="0" verticalDpi="0" copies="0"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{17964A67-0CFC-425D-B6B6-D396D8FCFDB0}">
+  <dimension ref="B1:R9"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D8" sqref="D8"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="1.5703125" customWidth="1"/>
+    <col min="2" max="2" width="27.28515625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="10.7109375" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="16.5703125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="12.85546875" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="8.85546875" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="22" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="8.28515625" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="10.7109375" style="8" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="16.5703125" style="8" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="12.85546875" style="8" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="9.140625" style="8"/>
+    <col min="13" max="13" width="9.28515625" style="8" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="15.28515625" style="8" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="10.7109375" style="8" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="16.42578125" style="8" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="25" style="12" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="12.140625" style="8" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="2:18" ht="5.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="2" spans="2:18" ht="19.5" x14ac:dyDescent="0.25">
+      <c r="B2" s="7" t="s">
+        <v>44</v>
+      </c>
+      <c r="C2" s="19" t="s">
+        <v>34</v>
+      </c>
+      <c r="D2" s="19"/>
+      <c r="E2" s="19"/>
+      <c r="F2" s="19"/>
+      <c r="G2" s="19"/>
+      <c r="H2" s="19"/>
+      <c r="I2" s="19"/>
+      <c r="J2" s="19"/>
+      <c r="K2" s="19"/>
+      <c r="L2" s="19"/>
+      <c r="M2" s="19"/>
+      <c r="N2" s="19"/>
+      <c r="O2" s="20"/>
+      <c r="P2" s="20"/>
+      <c r="Q2" s="20"/>
+      <c r="R2" s="21"/>
+    </row>
+    <row r="3" spans="2:18" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="B3" s="22" t="s">
+        <v>20</v>
+      </c>
+      <c r="C3" s="23" t="s">
+        <v>33</v>
+      </c>
+      <c r="D3" s="23"/>
+      <c r="E3" s="23"/>
+      <c r="F3" s="16" t="s">
+        <v>35</v>
+      </c>
+      <c r="G3" s="16" t="s">
+        <v>25</v>
+      </c>
+      <c r="H3" s="16" t="s">
+        <v>36</v>
+      </c>
+      <c r="I3" s="23" t="s">
+        <v>24</v>
+      </c>
+      <c r="J3" s="23"/>
+      <c r="K3" s="23"/>
+      <c r="L3" s="23" t="s">
+        <v>15</v>
+      </c>
+      <c r="M3" s="24"/>
+      <c r="N3" s="24"/>
+      <c r="O3" s="23" t="s">
+        <v>13</v>
+      </c>
+      <c r="P3" s="23"/>
+      <c r="Q3" s="25" t="s">
+        <v>22</v>
+      </c>
+      <c r="R3" s="18" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="4" spans="2:18" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B4" s="22"/>
+      <c r="C4" s="9" t="s">
+        <v>7</v>
+      </c>
+      <c r="D4" s="9" t="s">
+        <v>23</v>
+      </c>
+      <c r="E4" s="9" t="s">
+        <v>8</v>
+      </c>
+      <c r="F4" s="3"/>
+      <c r="G4" s="3"/>
+      <c r="H4" s="3"/>
+      <c r="I4" s="9" t="s">
+        <v>7</v>
+      </c>
+      <c r="J4" s="9" t="s">
+        <v>23</v>
+      </c>
+      <c r="K4" s="9" t="s">
+        <v>8</v>
+      </c>
+      <c r="L4" s="9" t="s">
+        <v>16</v>
+      </c>
+      <c r="M4" s="9" t="s">
+        <v>17</v>
+      </c>
+      <c r="N4" s="9" t="s">
+        <v>27</v>
+      </c>
+      <c r="O4" s="9" t="s">
+        <v>14</v>
+      </c>
+      <c r="P4" s="9" t="s">
+        <v>26</v>
+      </c>
+      <c r="Q4" s="26"/>
+      <c r="R4" s="18"/>
+    </row>
+    <row r="5" spans="2:18" x14ac:dyDescent="0.25">
+      <c r="B5" s="4" t="s">
+        <v>38</v>
+      </c>
+      <c r="C5" s="9">
+        <v>1</v>
+      </c>
+      <c r="D5" s="9"/>
+      <c r="E5" s="9"/>
+      <c r="F5" s="3"/>
+      <c r="G5" s="3"/>
+      <c r="H5" s="3"/>
+      <c r="I5" s="9">
+        <v>1</v>
+      </c>
+      <c r="J5" s="9"/>
+      <c r="K5" s="9"/>
+      <c r="L5" s="9">
+        <v>2</v>
+      </c>
+      <c r="M5" s="9"/>
+      <c r="N5" s="9"/>
+      <c r="O5" s="9"/>
+      <c r="P5" s="9"/>
+      <c r="Q5" s="13"/>
+      <c r="R5" s="10">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="6" spans="2:18" x14ac:dyDescent="0.25">
+      <c r="B6" s="4" t="s">
+        <v>39</v>
+      </c>
+      <c r="C6" s="9">
+        <v>1</v>
+      </c>
+      <c r="D6" s="9"/>
+      <c r="E6" s="9"/>
+      <c r="F6" s="3"/>
+      <c r="G6" s="3"/>
+      <c r="H6" s="3"/>
+      <c r="I6" s="9">
+        <v>1</v>
+      </c>
+      <c r="J6" s="9"/>
+      <c r="K6" s="9"/>
+      <c r="L6" s="9">
+        <v>2</v>
+      </c>
+      <c r="M6" s="9"/>
+      <c r="N6" s="9"/>
+      <c r="O6" s="9"/>
+      <c r="P6" s="9"/>
+      <c r="Q6" s="13"/>
+      <c r="R6" s="10">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="7" spans="2:18" x14ac:dyDescent="0.25">
+      <c r="B7" s="4" t="s">
+        <v>40</v>
+      </c>
+      <c r="C7" s="9">
+        <v>1</v>
+      </c>
+      <c r="D7" s="9"/>
+      <c r="E7" s="9"/>
+      <c r="F7" s="3"/>
+      <c r="G7" s="3"/>
+      <c r="H7" s="3"/>
+      <c r="I7" s="9">
+        <v>1</v>
+      </c>
+      <c r="J7" s="9"/>
+      <c r="K7" s="9"/>
+      <c r="L7" s="9">
+        <v>2</v>
+      </c>
+      <c r="M7" s="9"/>
+      <c r="N7" s="9"/>
+      <c r="O7" s="9"/>
+      <c r="P7" s="9"/>
+      <c r="Q7" s="13"/>
+      <c r="R7" s="10">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="8" spans="2:18" x14ac:dyDescent="0.25">
+      <c r="B8" s="4" t="s">
+        <v>41</v>
+      </c>
+      <c r="C8" s="9">
+        <v>1</v>
+      </c>
+      <c r="D8" s="9"/>
+      <c r="E8" s="9"/>
+      <c r="F8" s="3"/>
+      <c r="G8" s="3"/>
+      <c r="H8" s="3"/>
+      <c r="I8" s="9">
+        <v>1</v>
+      </c>
+      <c r="J8" s="9"/>
+      <c r="K8" s="9"/>
+      <c r="L8" s="9">
+        <v>2</v>
+      </c>
+      <c r="M8" s="9"/>
+      <c r="N8" s="9"/>
+      <c r="O8" s="9"/>
+      <c r="P8" s="9"/>
+      <c r="Q8" s="13"/>
+      <c r="R8" s="10">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="9" spans="2:18" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B9" s="5" t="s">
+        <v>42</v>
+      </c>
+      <c r="C9" s="11">
+        <v>1</v>
+      </c>
+      <c r="D9" s="11"/>
+      <c r="E9" s="11"/>
+      <c r="F9" s="6"/>
+      <c r="G9" s="6"/>
+      <c r="H9" s="6"/>
+      <c r="I9" s="11">
+        <v>1</v>
+      </c>
+      <c r="J9" s="11"/>
+      <c r="K9" s="11"/>
+      <c r="L9" s="11">
+        <v>2</v>
+      </c>
+      <c r="M9" s="11"/>
+      <c r="N9" s="11"/>
+      <c r="O9" s="11"/>
+      <c r="P9" s="11"/>
+      <c r="Q9" s="14"/>
+      <c r="R9" s="17">
         <v>4</v>
       </c>
     </row>

--- a/Tài Nguyên/Bien ban cuoc hop.xlsx
+++ b/Tài Nguyên/Bien ban cuoc hop.xlsx
@@ -3,22 +3,24 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="24332"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{14188DD8-CB17-4A63-ABF5-28027176B6FA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FBA79767-D1FF-4C8A-90F5-3B60FB6C103F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1845" yWindow="4530" windowWidth="21600" windowHeight="11685" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="2340" yWindow="2340" windowWidth="21600" windowHeight="11505" activeTab="5" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Rules" sheetId="1" r:id="rId1"/>
     <sheet name="Week 01" sheetId="2" r:id="rId2"/>
     <sheet name="Week 02" sheetId="4" r:id="rId3"/>
     <sheet name="Week 03" sheetId="5" r:id="rId4"/>
+    <sheet name="Week 04" sheetId="6" r:id="rId5"/>
+    <sheet name="Week 05" sheetId="7" r:id="rId6"/>
   </sheets>
   <calcPr calcId="124519"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="102" uniqueCount="45">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="158" uniqueCount="47">
   <si>
     <t>chất lượng</t>
   </si>
@@ -153,6 +155,12 @@
   </si>
   <si>
     <t>12h00-12h30 ngày 19/05/2023</t>
+  </si>
+  <si>
+    <t>12h00-12h30 ngày 24/05/2023</t>
+  </si>
+  <si>
+    <t>12h00-12h30 ngày 29/05/2023</t>
   </si>
 </sst>
 </file>
@@ -419,7 +427,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="27">
+  <cellXfs count="28">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -467,6 +475,9 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -1003,34 +1014,34 @@
       <c r="B2" s="7" t="s">
         <v>37</v>
       </c>
-      <c r="C2" s="19" t="s">
+      <c r="C2" s="20" t="s">
         <v>34</v>
       </c>
-      <c r="D2" s="19"/>
-      <c r="E2" s="19"/>
-      <c r="F2" s="19"/>
-      <c r="G2" s="19"/>
-      <c r="H2" s="19"/>
-      <c r="I2" s="19"/>
-      <c r="J2" s="19"/>
-      <c r="K2" s="19"/>
-      <c r="L2" s="19"/>
-      <c r="M2" s="19"/>
-      <c r="N2" s="19"/>
-      <c r="O2" s="20"/>
-      <c r="P2" s="20"/>
-      <c r="Q2" s="20"/>
-      <c r="R2" s="21"/>
+      <c r="D2" s="20"/>
+      <c r="E2" s="20"/>
+      <c r="F2" s="20"/>
+      <c r="G2" s="20"/>
+      <c r="H2" s="20"/>
+      <c r="I2" s="20"/>
+      <c r="J2" s="20"/>
+      <c r="K2" s="20"/>
+      <c r="L2" s="20"/>
+      <c r="M2" s="20"/>
+      <c r="N2" s="20"/>
+      <c r="O2" s="21"/>
+      <c r="P2" s="21"/>
+      <c r="Q2" s="21"/>
+      <c r="R2" s="22"/>
     </row>
     <row r="3" spans="2:18" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B3" s="22" t="s">
+      <c r="B3" s="23" t="s">
         <v>20</v>
       </c>
-      <c r="C3" s="23" t="s">
+      <c r="C3" s="24" t="s">
         <v>33</v>
       </c>
-      <c r="D3" s="23"/>
-      <c r="E3" s="23"/>
+      <c r="D3" s="24"/>
+      <c r="E3" s="24"/>
       <c r="F3" s="15" t="s">
         <v>35</v>
       </c>
@@ -1040,29 +1051,29 @@
       <c r="H3" s="15" t="s">
         <v>36</v>
       </c>
-      <c r="I3" s="23" t="s">
+      <c r="I3" s="24" t="s">
         <v>24</v>
       </c>
-      <c r="J3" s="23"/>
-      <c r="K3" s="23"/>
-      <c r="L3" s="23" t="s">
+      <c r="J3" s="24"/>
+      <c r="K3" s="24"/>
+      <c r="L3" s="24" t="s">
         <v>15</v>
       </c>
-      <c r="M3" s="24"/>
-      <c r="N3" s="24"/>
-      <c r="O3" s="23" t="s">
+      <c r="M3" s="25"/>
+      <c r="N3" s="25"/>
+      <c r="O3" s="24" t="s">
         <v>13</v>
       </c>
-      <c r="P3" s="23"/>
-      <c r="Q3" s="25" t="s">
+      <c r="P3" s="24"/>
+      <c r="Q3" s="26" t="s">
         <v>22</v>
       </c>
-      <c r="R3" s="18" t="s">
+      <c r="R3" s="19" t="s">
         <v>21</v>
       </c>
     </row>
     <row r="4" spans="2:18" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B4" s="22"/>
+      <c r="B4" s="23"/>
       <c r="C4" s="9" t="s">
         <v>7</v>
       </c>
@@ -1099,8 +1110,8 @@
       <c r="P4" s="9" t="s">
         <v>26</v>
       </c>
-      <c r="Q4" s="26"/>
-      <c r="R4" s="18"/>
+      <c r="Q4" s="27"/>
+      <c r="R4" s="19"/>
     </row>
     <row r="5" spans="2:18" x14ac:dyDescent="0.25">
       <c r="B5" s="4" t="s">
@@ -1298,34 +1309,34 @@
       <c r="B2" s="7" t="s">
         <v>43</v>
       </c>
-      <c r="C2" s="19" t="s">
+      <c r="C2" s="20" t="s">
         <v>34</v>
       </c>
-      <c r="D2" s="19"/>
-      <c r="E2" s="19"/>
-      <c r="F2" s="19"/>
-      <c r="G2" s="19"/>
-      <c r="H2" s="19"/>
-      <c r="I2" s="19"/>
-      <c r="J2" s="19"/>
-      <c r="K2" s="19"/>
-      <c r="L2" s="19"/>
-      <c r="M2" s="19"/>
-      <c r="N2" s="19"/>
-      <c r="O2" s="20"/>
-      <c r="P2" s="20"/>
-      <c r="Q2" s="20"/>
-      <c r="R2" s="21"/>
+      <c r="D2" s="20"/>
+      <c r="E2" s="20"/>
+      <c r="F2" s="20"/>
+      <c r="G2" s="20"/>
+      <c r="H2" s="20"/>
+      <c r="I2" s="20"/>
+      <c r="J2" s="20"/>
+      <c r="K2" s="20"/>
+      <c r="L2" s="20"/>
+      <c r="M2" s="20"/>
+      <c r="N2" s="20"/>
+      <c r="O2" s="21"/>
+      <c r="P2" s="21"/>
+      <c r="Q2" s="21"/>
+      <c r="R2" s="22"/>
     </row>
     <row r="3" spans="2:18" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B3" s="22" t="s">
+      <c r="B3" s="23" t="s">
         <v>20</v>
       </c>
-      <c r="C3" s="23" t="s">
+      <c r="C3" s="24" t="s">
         <v>33</v>
       </c>
-      <c r="D3" s="23"/>
-      <c r="E3" s="23"/>
+      <c r="D3" s="24"/>
+      <c r="E3" s="24"/>
       <c r="F3" s="15" t="s">
         <v>35</v>
       </c>
@@ -1335,29 +1346,29 @@
       <c r="H3" s="15" t="s">
         <v>36</v>
       </c>
-      <c r="I3" s="23" t="s">
+      <c r="I3" s="24" t="s">
         <v>24</v>
       </c>
-      <c r="J3" s="23"/>
-      <c r="K3" s="23"/>
-      <c r="L3" s="23" t="s">
+      <c r="J3" s="24"/>
+      <c r="K3" s="24"/>
+      <c r="L3" s="24" t="s">
         <v>15</v>
       </c>
-      <c r="M3" s="24"/>
-      <c r="N3" s="24"/>
-      <c r="O3" s="23" t="s">
+      <c r="M3" s="25"/>
+      <c r="N3" s="25"/>
+      <c r="O3" s="24" t="s">
         <v>13</v>
       </c>
-      <c r="P3" s="23"/>
-      <c r="Q3" s="25" t="s">
+      <c r="P3" s="24"/>
+      <c r="Q3" s="26" t="s">
         <v>22</v>
       </c>
-      <c r="R3" s="18" t="s">
+      <c r="R3" s="19" t="s">
         <v>21</v>
       </c>
     </row>
     <row r="4" spans="2:18" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B4" s="22"/>
+      <c r="B4" s="23"/>
       <c r="C4" s="9" t="s">
         <v>7</v>
       </c>
@@ -1394,8 +1405,8 @@
       <c r="P4" s="9" t="s">
         <v>26</v>
       </c>
-      <c r="Q4" s="26"/>
-      <c r="R4" s="18"/>
+      <c r="Q4" s="27"/>
+      <c r="R4" s="19"/>
     </row>
     <row r="5" spans="2:18" x14ac:dyDescent="0.25">
       <c r="B5" s="4" t="s">
@@ -1562,7 +1573,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{17964A67-0CFC-425D-B6B6-D396D8FCFDB0}">
   <dimension ref="B1:R9"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="D8" sqref="D8"/>
     </sheetView>
   </sheetViews>
@@ -1593,34 +1604,34 @@
       <c r="B2" s="7" t="s">
         <v>44</v>
       </c>
-      <c r="C2" s="19" t="s">
+      <c r="C2" s="20" t="s">
         <v>34</v>
       </c>
-      <c r="D2" s="19"/>
-      <c r="E2" s="19"/>
-      <c r="F2" s="19"/>
-      <c r="G2" s="19"/>
-      <c r="H2" s="19"/>
-      <c r="I2" s="19"/>
-      <c r="J2" s="19"/>
-      <c r="K2" s="19"/>
-      <c r="L2" s="19"/>
-      <c r="M2" s="19"/>
-      <c r="N2" s="19"/>
-      <c r="O2" s="20"/>
-      <c r="P2" s="20"/>
-      <c r="Q2" s="20"/>
-      <c r="R2" s="21"/>
+      <c r="D2" s="20"/>
+      <c r="E2" s="20"/>
+      <c r="F2" s="20"/>
+      <c r="G2" s="20"/>
+      <c r="H2" s="20"/>
+      <c r="I2" s="20"/>
+      <c r="J2" s="20"/>
+      <c r="K2" s="20"/>
+      <c r="L2" s="20"/>
+      <c r="M2" s="20"/>
+      <c r="N2" s="20"/>
+      <c r="O2" s="21"/>
+      <c r="P2" s="21"/>
+      <c r="Q2" s="21"/>
+      <c r="R2" s="22"/>
     </row>
     <row r="3" spans="2:18" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B3" s="22" t="s">
+      <c r="B3" s="23" t="s">
         <v>20</v>
       </c>
-      <c r="C3" s="23" t="s">
+      <c r="C3" s="24" t="s">
         <v>33</v>
       </c>
-      <c r="D3" s="23"/>
-      <c r="E3" s="23"/>
+      <c r="D3" s="24"/>
+      <c r="E3" s="24"/>
       <c r="F3" s="16" t="s">
         <v>35</v>
       </c>
@@ -1630,29 +1641,29 @@
       <c r="H3" s="16" t="s">
         <v>36</v>
       </c>
-      <c r="I3" s="23" t="s">
+      <c r="I3" s="24" t="s">
         <v>24</v>
       </c>
-      <c r="J3" s="23"/>
-      <c r="K3" s="23"/>
-      <c r="L3" s="23" t="s">
+      <c r="J3" s="24"/>
+      <c r="K3" s="24"/>
+      <c r="L3" s="24" t="s">
         <v>15</v>
       </c>
-      <c r="M3" s="24"/>
-      <c r="N3" s="24"/>
-      <c r="O3" s="23" t="s">
+      <c r="M3" s="25"/>
+      <c r="N3" s="25"/>
+      <c r="O3" s="24" t="s">
         <v>13</v>
       </c>
-      <c r="P3" s="23"/>
-      <c r="Q3" s="25" t="s">
+      <c r="P3" s="24"/>
+      <c r="Q3" s="26" t="s">
         <v>22</v>
       </c>
-      <c r="R3" s="18" t="s">
+      <c r="R3" s="19" t="s">
         <v>21</v>
       </c>
     </row>
     <row r="4" spans="2:18" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B4" s="22"/>
+      <c r="B4" s="23"/>
       <c r="C4" s="9" t="s">
         <v>7</v>
       </c>
@@ -1689,8 +1700,598 @@
       <c r="P4" s="9" t="s">
         <v>26</v>
       </c>
-      <c r="Q4" s="26"/>
-      <c r="R4" s="18"/>
+      <c r="Q4" s="27"/>
+      <c r="R4" s="19"/>
+    </row>
+    <row r="5" spans="2:18" x14ac:dyDescent="0.25">
+      <c r="B5" s="4" t="s">
+        <v>38</v>
+      </c>
+      <c r="C5" s="9">
+        <v>1</v>
+      </c>
+      <c r="D5" s="9"/>
+      <c r="E5" s="9"/>
+      <c r="F5" s="3"/>
+      <c r="G5" s="3"/>
+      <c r="H5" s="3"/>
+      <c r="I5" s="9">
+        <v>1</v>
+      </c>
+      <c r="J5" s="9"/>
+      <c r="K5" s="9"/>
+      <c r="L5" s="9">
+        <v>2</v>
+      </c>
+      <c r="M5" s="9"/>
+      <c r="N5" s="9"/>
+      <c r="O5" s="9"/>
+      <c r="P5" s="9"/>
+      <c r="Q5" s="13"/>
+      <c r="R5" s="10">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="6" spans="2:18" x14ac:dyDescent="0.25">
+      <c r="B6" s="4" t="s">
+        <v>39</v>
+      </c>
+      <c r="C6" s="9">
+        <v>1</v>
+      </c>
+      <c r="D6" s="9"/>
+      <c r="E6" s="9"/>
+      <c r="F6" s="3"/>
+      <c r="G6" s="3"/>
+      <c r="H6" s="3"/>
+      <c r="I6" s="9">
+        <v>1</v>
+      </c>
+      <c r="J6" s="9"/>
+      <c r="K6" s="9"/>
+      <c r="L6" s="9">
+        <v>2</v>
+      </c>
+      <c r="M6" s="9"/>
+      <c r="N6" s="9"/>
+      <c r="O6" s="9"/>
+      <c r="P6" s="9"/>
+      <c r="Q6" s="13"/>
+      <c r="R6" s="10">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="7" spans="2:18" x14ac:dyDescent="0.25">
+      <c r="B7" s="4" t="s">
+        <v>40</v>
+      </c>
+      <c r="C7" s="9">
+        <v>1</v>
+      </c>
+      <c r="D7" s="9"/>
+      <c r="E7" s="9"/>
+      <c r="F7" s="3"/>
+      <c r="G7" s="3"/>
+      <c r="H7" s="3"/>
+      <c r="I7" s="9">
+        <v>1</v>
+      </c>
+      <c r="J7" s="9"/>
+      <c r="K7" s="9"/>
+      <c r="L7" s="9">
+        <v>2</v>
+      </c>
+      <c r="M7" s="9"/>
+      <c r="N7" s="9"/>
+      <c r="O7" s="9"/>
+      <c r="P7" s="9"/>
+      <c r="Q7" s="13"/>
+      <c r="R7" s="10">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="8" spans="2:18" x14ac:dyDescent="0.25">
+      <c r="B8" s="4" t="s">
+        <v>41</v>
+      </c>
+      <c r="C8" s="9">
+        <v>1</v>
+      </c>
+      <c r="D8" s="9"/>
+      <c r="E8" s="9"/>
+      <c r="F8" s="3"/>
+      <c r="G8" s="3"/>
+      <c r="H8" s="3"/>
+      <c r="I8" s="9">
+        <v>1</v>
+      </c>
+      <c r="J8" s="9"/>
+      <c r="K8" s="9"/>
+      <c r="L8" s="9">
+        <v>2</v>
+      </c>
+      <c r="M8" s="9"/>
+      <c r="N8" s="9"/>
+      <c r="O8" s="9"/>
+      <c r="P8" s="9"/>
+      <c r="Q8" s="13"/>
+      <c r="R8" s="10">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="9" spans="2:18" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B9" s="5" t="s">
+        <v>42</v>
+      </c>
+      <c r="C9" s="11">
+        <v>1</v>
+      </c>
+      <c r="D9" s="11"/>
+      <c r="E9" s="11"/>
+      <c r="F9" s="6"/>
+      <c r="G9" s="6"/>
+      <c r="H9" s="6"/>
+      <c r="I9" s="11">
+        <v>1</v>
+      </c>
+      <c r="J9" s="11"/>
+      <c r="K9" s="11"/>
+      <c r="L9" s="11">
+        <v>2</v>
+      </c>
+      <c r="M9" s="11"/>
+      <c r="N9" s="11"/>
+      <c r="O9" s="11"/>
+      <c r="P9" s="11"/>
+      <c r="Q9" s="14"/>
+      <c r="R9" s="17">
+        <v>4</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="8">
+    <mergeCell ref="C2:R2"/>
+    <mergeCell ref="B3:B4"/>
+    <mergeCell ref="C3:E3"/>
+    <mergeCell ref="I3:K3"/>
+    <mergeCell ref="L3:N3"/>
+    <mergeCell ref="O3:P3"/>
+    <mergeCell ref="Q3:Q4"/>
+    <mergeCell ref="R3:R4"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="0" orientation="portrait" horizontalDpi="0" verticalDpi="0" copies="0"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{750F7A8C-CCA5-420B-B1B1-3B88D165CB48}">
+  <dimension ref="B1:R9"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="G11" sqref="G11"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="1.5703125" customWidth="1"/>
+    <col min="2" max="2" width="27.28515625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="10.7109375" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="16.5703125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="12.85546875" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="8.85546875" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="22" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="8.28515625" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="10.7109375" style="8" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="16.5703125" style="8" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="12.85546875" style="8" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="9.140625" style="8"/>
+    <col min="13" max="13" width="9.28515625" style="8" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="15.28515625" style="8" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="10.7109375" style="8" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="16.42578125" style="8" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="25" style="12" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="12.140625" style="8" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="2:18" ht="5.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="2" spans="2:18" ht="19.5" x14ac:dyDescent="0.25">
+      <c r="B2" s="7" t="s">
+        <v>45</v>
+      </c>
+      <c r="C2" s="20" t="s">
+        <v>34</v>
+      </c>
+      <c r="D2" s="20"/>
+      <c r="E2" s="20"/>
+      <c r="F2" s="20"/>
+      <c r="G2" s="20"/>
+      <c r="H2" s="20"/>
+      <c r="I2" s="20"/>
+      <c r="J2" s="20"/>
+      <c r="K2" s="20"/>
+      <c r="L2" s="20"/>
+      <c r="M2" s="20"/>
+      <c r="N2" s="20"/>
+      <c r="O2" s="21"/>
+      <c r="P2" s="21"/>
+      <c r="Q2" s="21"/>
+      <c r="R2" s="22"/>
+    </row>
+    <row r="3" spans="2:18" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="B3" s="23" t="s">
+        <v>20</v>
+      </c>
+      <c r="C3" s="24" t="s">
+        <v>33</v>
+      </c>
+      <c r="D3" s="24"/>
+      <c r="E3" s="24"/>
+      <c r="F3" s="18" t="s">
+        <v>35</v>
+      </c>
+      <c r="G3" s="18" t="s">
+        <v>25</v>
+      </c>
+      <c r="H3" s="18" t="s">
+        <v>36</v>
+      </c>
+      <c r="I3" s="24" t="s">
+        <v>24</v>
+      </c>
+      <c r="J3" s="24"/>
+      <c r="K3" s="24"/>
+      <c r="L3" s="24" t="s">
+        <v>15</v>
+      </c>
+      <c r="M3" s="25"/>
+      <c r="N3" s="25"/>
+      <c r="O3" s="24" t="s">
+        <v>13</v>
+      </c>
+      <c r="P3" s="24"/>
+      <c r="Q3" s="26" t="s">
+        <v>22</v>
+      </c>
+      <c r="R3" s="19" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="4" spans="2:18" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B4" s="23"/>
+      <c r="C4" s="9" t="s">
+        <v>7</v>
+      </c>
+      <c r="D4" s="9" t="s">
+        <v>23</v>
+      </c>
+      <c r="E4" s="9" t="s">
+        <v>8</v>
+      </c>
+      <c r="F4" s="3"/>
+      <c r="G4" s="3"/>
+      <c r="H4" s="3"/>
+      <c r="I4" s="9" t="s">
+        <v>7</v>
+      </c>
+      <c r="J4" s="9" t="s">
+        <v>23</v>
+      </c>
+      <c r="K4" s="9" t="s">
+        <v>8</v>
+      </c>
+      <c r="L4" s="9" t="s">
+        <v>16</v>
+      </c>
+      <c r="M4" s="9" t="s">
+        <v>17</v>
+      </c>
+      <c r="N4" s="9" t="s">
+        <v>27</v>
+      </c>
+      <c r="O4" s="9" t="s">
+        <v>14</v>
+      </c>
+      <c r="P4" s="9" t="s">
+        <v>26</v>
+      </c>
+      <c r="Q4" s="27"/>
+      <c r="R4" s="19"/>
+    </row>
+    <row r="5" spans="2:18" x14ac:dyDescent="0.25">
+      <c r="B5" s="4" t="s">
+        <v>38</v>
+      </c>
+      <c r="C5" s="9">
+        <v>1</v>
+      </c>
+      <c r="D5" s="9"/>
+      <c r="E5" s="9"/>
+      <c r="F5" s="3"/>
+      <c r="G5" s="3"/>
+      <c r="H5" s="3"/>
+      <c r="I5" s="9">
+        <v>1</v>
+      </c>
+      <c r="J5" s="9"/>
+      <c r="K5" s="9"/>
+      <c r="L5" s="9">
+        <v>2</v>
+      </c>
+      <c r="M5" s="9"/>
+      <c r="N5" s="9"/>
+      <c r="O5" s="9"/>
+      <c r="P5" s="9"/>
+      <c r="Q5" s="13"/>
+      <c r="R5" s="10">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="6" spans="2:18" x14ac:dyDescent="0.25">
+      <c r="B6" s="4" t="s">
+        <v>39</v>
+      </c>
+      <c r="C6" s="9">
+        <v>1</v>
+      </c>
+      <c r="D6" s="9"/>
+      <c r="E6" s="9"/>
+      <c r="F6" s="3"/>
+      <c r="G6" s="3"/>
+      <c r="H6" s="3"/>
+      <c r="I6" s="9">
+        <v>1</v>
+      </c>
+      <c r="J6" s="9"/>
+      <c r="K6" s="9"/>
+      <c r="L6" s="9">
+        <v>2</v>
+      </c>
+      <c r="M6" s="9"/>
+      <c r="N6" s="9"/>
+      <c r="O6" s="9"/>
+      <c r="P6" s="9"/>
+      <c r="Q6" s="13"/>
+      <c r="R6" s="10">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="7" spans="2:18" x14ac:dyDescent="0.25">
+      <c r="B7" s="4" t="s">
+        <v>40</v>
+      </c>
+      <c r="C7" s="9">
+        <v>1</v>
+      </c>
+      <c r="D7" s="9"/>
+      <c r="E7" s="9"/>
+      <c r="F7" s="3"/>
+      <c r="G7" s="3"/>
+      <c r="H7" s="3"/>
+      <c r="I7" s="9">
+        <v>1</v>
+      </c>
+      <c r="J7" s="9"/>
+      <c r="K7" s="9"/>
+      <c r="L7" s="9">
+        <v>2</v>
+      </c>
+      <c r="M7" s="9"/>
+      <c r="N7" s="9"/>
+      <c r="O7" s="9"/>
+      <c r="P7" s="9"/>
+      <c r="Q7" s="13"/>
+      <c r="R7" s="10">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="8" spans="2:18" x14ac:dyDescent="0.25">
+      <c r="B8" s="4" t="s">
+        <v>41</v>
+      </c>
+      <c r="C8" s="9">
+        <v>1</v>
+      </c>
+      <c r="D8" s="9"/>
+      <c r="E8" s="9"/>
+      <c r="F8" s="3"/>
+      <c r="G8" s="3"/>
+      <c r="H8" s="3"/>
+      <c r="I8" s="9">
+        <v>1</v>
+      </c>
+      <c r="J8" s="9"/>
+      <c r="K8" s="9"/>
+      <c r="L8" s="9">
+        <v>2</v>
+      </c>
+      <c r="M8" s="9"/>
+      <c r="N8" s="9"/>
+      <c r="O8" s="9"/>
+      <c r="P8" s="9"/>
+      <c r="Q8" s="13"/>
+      <c r="R8" s="10">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="9" spans="2:18" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B9" s="5" t="s">
+        <v>42</v>
+      </c>
+      <c r="C9" s="11">
+        <v>1</v>
+      </c>
+      <c r="D9" s="11"/>
+      <c r="E9" s="11"/>
+      <c r="F9" s="6"/>
+      <c r="G9" s="6"/>
+      <c r="H9" s="6"/>
+      <c r="I9" s="11">
+        <v>1</v>
+      </c>
+      <c r="J9" s="11"/>
+      <c r="K9" s="11"/>
+      <c r="L9" s="11">
+        <v>2</v>
+      </c>
+      <c r="M9" s="11"/>
+      <c r="N9" s="11"/>
+      <c r="O9" s="11"/>
+      <c r="P9" s="11"/>
+      <c r="Q9" s="14"/>
+      <c r="R9" s="17">
+        <v>4</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="8">
+    <mergeCell ref="C2:R2"/>
+    <mergeCell ref="B3:B4"/>
+    <mergeCell ref="C3:E3"/>
+    <mergeCell ref="I3:K3"/>
+    <mergeCell ref="L3:N3"/>
+    <mergeCell ref="O3:P3"/>
+    <mergeCell ref="Q3:Q4"/>
+    <mergeCell ref="R3:R4"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="0" orientation="portrait" horizontalDpi="0" verticalDpi="0" copies="0"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CB8F8A9E-2684-44AE-A3A5-E543AC782195}">
+  <dimension ref="B1:R9"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F18" sqref="F18"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="1.5703125" customWidth="1"/>
+    <col min="2" max="2" width="27.28515625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="10.7109375" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="16.5703125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="12.85546875" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="8.85546875" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="22" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="8.28515625" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="10.7109375" style="8" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="16.5703125" style="8" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="12.85546875" style="8" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="9.140625" style="8"/>
+    <col min="13" max="13" width="9.28515625" style="8" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="15.28515625" style="8" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="10.7109375" style="8" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="16.42578125" style="8" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="25" style="12" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="12.140625" style="8" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="2:18" ht="5.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="2" spans="2:18" ht="19.5" x14ac:dyDescent="0.25">
+      <c r="B2" s="7" t="s">
+        <v>46</v>
+      </c>
+      <c r="C2" s="20" t="s">
+        <v>34</v>
+      </c>
+      <c r="D2" s="20"/>
+      <c r="E2" s="20"/>
+      <c r="F2" s="20"/>
+      <c r="G2" s="20"/>
+      <c r="H2" s="20"/>
+      <c r="I2" s="20"/>
+      <c r="J2" s="20"/>
+      <c r="K2" s="20"/>
+      <c r="L2" s="20"/>
+      <c r="M2" s="20"/>
+      <c r="N2" s="20"/>
+      <c r="O2" s="21"/>
+      <c r="P2" s="21"/>
+      <c r="Q2" s="21"/>
+      <c r="R2" s="22"/>
+    </row>
+    <row r="3" spans="2:18" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="B3" s="23" t="s">
+        <v>20</v>
+      </c>
+      <c r="C3" s="24" t="s">
+        <v>33</v>
+      </c>
+      <c r="D3" s="24"/>
+      <c r="E3" s="24"/>
+      <c r="F3" s="18" t="s">
+        <v>35</v>
+      </c>
+      <c r="G3" s="18" t="s">
+        <v>25</v>
+      </c>
+      <c r="H3" s="18" t="s">
+        <v>36</v>
+      </c>
+      <c r="I3" s="24" t="s">
+        <v>24</v>
+      </c>
+      <c r="J3" s="24"/>
+      <c r="K3" s="24"/>
+      <c r="L3" s="24" t="s">
+        <v>15</v>
+      </c>
+      <c r="M3" s="25"/>
+      <c r="N3" s="25"/>
+      <c r="O3" s="24" t="s">
+        <v>13</v>
+      </c>
+      <c r="P3" s="24"/>
+      <c r="Q3" s="26" t="s">
+        <v>22</v>
+      </c>
+      <c r="R3" s="19" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="4" spans="2:18" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B4" s="23"/>
+      <c r="C4" s="9" t="s">
+        <v>7</v>
+      </c>
+      <c r="D4" s="9" t="s">
+        <v>23</v>
+      </c>
+      <c r="E4" s="9" t="s">
+        <v>8</v>
+      </c>
+      <c r="F4" s="3"/>
+      <c r="G4" s="3"/>
+      <c r="H4" s="3"/>
+      <c r="I4" s="9" t="s">
+        <v>7</v>
+      </c>
+      <c r="J4" s="9" t="s">
+        <v>23</v>
+      </c>
+      <c r="K4" s="9" t="s">
+        <v>8</v>
+      </c>
+      <c r="L4" s="9" t="s">
+        <v>16</v>
+      </c>
+      <c r="M4" s="9" t="s">
+        <v>17</v>
+      </c>
+      <c r="N4" s="9" t="s">
+        <v>27</v>
+      </c>
+      <c r="O4" s="9" t="s">
+        <v>14</v>
+      </c>
+      <c r="P4" s="9" t="s">
+        <v>26</v>
+      </c>
+      <c r="Q4" s="27"/>
+      <c r="R4" s="19"/>
     </row>
     <row r="5" spans="2:18" x14ac:dyDescent="0.25">
       <c r="B5" s="4" t="s">
